--- a/CLUE_GAME_BOARD.xlsx
+++ b/CLUE_GAME_BOARD.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="9975"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="19440" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="37">
   <si>
     <t>W</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                           </t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>RN</t>
   </si>
 </sst>
 </file>
@@ -727,11 +751,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -850,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>2</v>
@@ -908,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>1</v>
@@ -1041,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>3</v>
@@ -1561,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -1973,7 +1997,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>9</v>
@@ -2187,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>8</v>
@@ -2442,7 +2466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -2539,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>4</v>
@@ -2602,7 +2626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2682,7 +2706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
@@ -2750,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="X25" s="16" t="s">
         <v>5</v>
@@ -2762,7 +2786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>0</v>
       </c>
@@ -2839,32 +2863,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>27</v>
       </c>
@@ -2881,7 +2905,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2893,7 +2917,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
